--- a/output/incorrect_rank_correct_rank.xlsx
+++ b/output/incorrect_rank_correct_rank.xlsx
@@ -453,269 +453,260 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Diagram-&gt;Statement</t>
+          <t>Diagram-&gt;Statement; Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Statement-&gt;Diagram</t>
+          <t>Statement-&gt;Diagram; Diagram-&gt;Statement</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Option-&gt;Statement; Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Statement-&gt;Diagram; Diagram-&gt;Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement; Statement-&gt;Diagram</t>
+          <t>Option-&gt;Statement; Diagram-&gt;Statement</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement; Diagram-&gt;Statement</t>
+          <t>Option-&gt;Statement; Statement-&gt;Diagram; Diagram-&gt;Statement</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement; Statement-&gt;Diagram; Diagram-&gt;Statement</t>
+          <t>Diagram-&gt;Statement; Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>34</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement; Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>41</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Statement-&gt;Diagram; Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Option-&gt;Statement; Statement-&gt;Option</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Option-&gt;Statement; Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D15" t="n">
-        <v>-4</v>
+        <v>41</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement; Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Diagram-&gt;Statement; Statement-&gt;Diagram; Diagram-&gt;Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
-        <v>41</v>
-      </c>
-      <c r="E16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Option-&gt;Statement-&gt;Diagram</t>
+          <t>Option-&gt;Statement; Statement-&gt;Diagram-&gt;Statement</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -724,42 +715,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Option-&gt;Statement; Option-&gt;Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement; Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Statement-&gt;Option; Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>64</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Statement-&gt;Option; Diagram-&gt;Statement</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -775,17 +766,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement; Statement-&gt;Option</t>
+          <t>Diagram-&gt;Statement; Statement-&gt;Option</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>-4</v>
+        <v>-14</v>
       </c>
     </row>
   </sheetData>
@@ -844,42 +835,42 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Diagram-&gt;Statement; Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Statement-&gt;Diagram</t>
+          <t>Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -892,281 +883,275 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Statement-&gt;Diagram; Statement-&gt;Option</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Diagram-&gt;Statement; Statement-&gt;Option</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Statement-&gt;Option; Option-&gt;Statement</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Option-&gt;Statement; Statement-&gt;Option</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Statement-&gt;Diagram; Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Option-&gt;Statement; Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Statement-&gt;Option</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Statement-&gt;Option</t>
+          <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>52</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Statement-&gt;Option</t>
+          <t>Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement; Statement-&gt;Diagram</t>
+          <t>Diagram-&gt;Statement; Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option; Option-&gt;Statement</t>
+          <t>Statement-&gt;Diagram; Diagram-&gt;Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>79</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Statement-&gt;Option</t>
+          <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>68</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement; Statement-&gt;Option</t>
+          <t>Diagram-&gt;Statement; Statement-&gt;Diagram; Diagram-&gt;Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Diagram-&gt;Statement; Statement-&gt;Diagram; Statement-&gt;Option</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Diagram-&gt;Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Statement-&gt;Option; Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Statement-&gt;Diagram; Option-&gt;Statement</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Statement-&gt;Option; Statement-&gt;Diagram</t>
+          <t>Diagram-&gt;Statement; Option-&gt;Statement</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D21" t="n">
-        <v>24</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1213,129 +1198,129 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Diagram-&gt;Statement</t>
+          <t>Diagram-&gt;Statement; Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Statement-&gt;Diagram</t>
+          <t>Statement-&gt;Diagram; Diagram-&gt;Statement</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Statement-&gt;Diagram; Statement-&gt;Diagram-&gt;Statement</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Option-&gt;Statement; Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement</t>
+          <t>Statement-&gt;Diagram; Diagram-&gt;Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement; Statement-&gt;Diagram</t>
+          <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1345,77 +1330,93 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Statement-&gt;Diagram; Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Statement-&gt;Diagram; Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Option-&gt;Statement; Statement-&gt;Option</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Diagram-&gt;Statement; Statement-&gt;Diagram-&gt;Statement; Diagram-&gt;Statement-&gt;Diagram</t>
+          <t>Diagram-&gt;Statement; Statement-&gt;Diagram; Diagram-&gt;Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Option-&gt;Statement; Statement-&gt;Option</t>
+          <t>Statement-&gt;Option; Statement-&gt;Diagram</t>
         </is>
       </c>
       <c r="B14" t="n">
+        <v>18</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Diagram-&gt;Statement; Statement-&gt;Option</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>20</v>
       </c>
-      <c r="C14" t="n">
-        <v>16</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-4</v>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-14</v>
       </c>
     </row>
   </sheetData>
